--- a/natmiOut/OldD0/LR-pairs_lrc2p/Plau-Plaur.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Plau-Plaur.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>37.1723094018074</v>
+        <v>43.21270066666667</v>
       </c>
       <c r="H2">
-        <v>37.1723094018074</v>
+        <v>129.638102</v>
       </c>
       <c r="I2">
-        <v>0.1307642875562311</v>
+        <v>0.1487696778665633</v>
       </c>
       <c r="J2">
-        <v>0.1307642875562311</v>
+        <v>0.1487696778665633</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>38.7241200188267</v>
+        <v>56.98117766666667</v>
       </c>
       <c r="N2">
-        <v>38.7241200188267</v>
+        <v>170.943533</v>
       </c>
       <c r="O2">
-        <v>0.9330649108198242</v>
+        <v>0.952030123851636</v>
       </c>
       <c r="P2">
-        <v>0.9330649108198242</v>
+        <v>0.9520301238516359</v>
       </c>
       <c r="Q2">
-        <v>1439.46497065255</v>
+        <v>2462.310574143818</v>
       </c>
       <c r="R2">
-        <v>1439.46497065255</v>
+        <v>22160.79516729437</v>
       </c>
       <c r="S2">
-        <v>0.1220115683070726</v>
+        <v>0.1416332148446723</v>
       </c>
       <c r="T2">
-        <v>0.1220115683070726</v>
+        <v>0.1416332148446722</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>37.1723094018074</v>
+        <v>43.21270066666667</v>
       </c>
       <c r="H3">
-        <v>37.1723094018074</v>
+        <v>129.638102</v>
       </c>
       <c r="I3">
-        <v>0.1307642875562311</v>
+        <v>0.1487696778665633</v>
       </c>
       <c r="J3">
-        <v>0.1307642875562311</v>
+        <v>0.1487696778665633</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.46080732489328</v>
+        <v>2.516719</v>
       </c>
       <c r="N3">
-        <v>2.46080732489328</v>
+        <v>7.550157</v>
       </c>
       <c r="O3">
-        <v>0.0592936125089483</v>
+        <v>0.04204883786863874</v>
       </c>
       <c r="P3">
-        <v>0.0592936125089483</v>
+        <v>0.04204883786863874</v>
       </c>
       <c r="Q3">
-        <v>91.47389125916698</v>
+        <v>108.7542248091127</v>
       </c>
       <c r="R3">
-        <v>91.47389125916698</v>
+        <v>978.7880232820141</v>
       </c>
       <c r="S3">
-        <v>0.007753486996367855</v>
+        <v>0.006255592064380734</v>
       </c>
       <c r="T3">
-        <v>0.007753486996367855</v>
+        <v>0.006255592064380733</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>37.1723094018074</v>
+        <v>43.21270066666667</v>
       </c>
       <c r="H4">
-        <v>37.1723094018074</v>
+        <v>129.638102</v>
       </c>
       <c r="I4">
-        <v>0.1307642875562311</v>
+        <v>0.1487696778665633</v>
       </c>
       <c r="J4">
-        <v>0.1307642875562311</v>
+        <v>0.1487696778665633</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.317137056925309</v>
+        <v>0.3543876666666666</v>
       </c>
       <c r="N4">
-        <v>0.317137056925309</v>
+        <v>1.063163</v>
       </c>
       <c r="O4">
-        <v>0.00764147667122742</v>
+        <v>0.005921038279725251</v>
       </c>
       <c r="P4">
-        <v>0.00764147667122742</v>
+        <v>0.005921038279725251</v>
       </c>
       <c r="Q4">
-        <v>11.78871680280619</v>
+        <v>15.31404815962511</v>
       </c>
       <c r="R4">
-        <v>11.78871680280619</v>
+        <v>137.826433436626</v>
       </c>
       <c r="S4">
-        <v>0.0009992322527906138</v>
+        <v>0.0008808709575103158</v>
       </c>
       <c r="T4">
-        <v>0.0009992322527906138</v>
+        <v>0.0008808709575103156</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>237.599829293337</v>
+        <v>237.7114053333333</v>
       </c>
       <c r="H5">
-        <v>237.599829293337</v>
+        <v>713.134216</v>
       </c>
       <c r="I5">
-        <v>0.8358257235294255</v>
+        <v>0.8183762794517323</v>
       </c>
       <c r="J5">
-        <v>0.8358257235294255</v>
+        <v>0.8183762794517323</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>38.7241200188267</v>
+        <v>56.98117766666667</v>
       </c>
       <c r="N5">
-        <v>38.7241200188267</v>
+        <v>170.943533</v>
       </c>
       <c r="O5">
-        <v>0.9330649108198242</v>
+        <v>0.952030123851636</v>
       </c>
       <c r="P5">
-        <v>0.9330649108198242</v>
+        <v>0.9520301238516359</v>
       </c>
       <c r="Q5">
-        <v>9200.844306007919</v>
+        <v>13545.07582069168</v>
       </c>
       <c r="R5">
-        <v>9200.844306007919</v>
+        <v>121905.6823862251</v>
       </c>
       <c r="S5">
-        <v>0.7798796541858984</v>
+        <v>0.7791188706836738</v>
       </c>
       <c r="T5">
-        <v>0.7798796541858984</v>
+        <v>0.7791188706836737</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>237.599829293337</v>
+        <v>237.7114053333333</v>
       </c>
       <c r="H6">
-        <v>237.599829293337</v>
+        <v>713.134216</v>
       </c>
       <c r="I6">
-        <v>0.8358257235294255</v>
+        <v>0.8183762794517323</v>
       </c>
       <c r="J6">
-        <v>0.8358257235294255</v>
+        <v>0.8183762794517323</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.46080732489328</v>
+        <v>2.516719</v>
       </c>
       <c r="N6">
-        <v>2.46080732489328</v>
+        <v>7.550157</v>
       </c>
       <c r="O6">
-        <v>0.0592936125089483</v>
+        <v>0.04204883786863874</v>
       </c>
       <c r="P6">
-        <v>0.0592936125089483</v>
+        <v>0.04204883786863874</v>
       </c>
       <c r="Q6">
-        <v>584.6874003184365</v>
+        <v>598.2528103191014</v>
       </c>
       <c r="R6">
-        <v>584.6874003184365</v>
+        <v>5384.275292871913</v>
       </c>
       <c r="S6">
-        <v>0.04955912657596511</v>
+        <v>0.03441177149020568</v>
       </c>
       <c r="T6">
-        <v>0.04955912657596511</v>
+        <v>0.03441177149020568</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>237.599829293337</v>
+        <v>237.7114053333333</v>
       </c>
       <c r="H7">
-        <v>237.599829293337</v>
+        <v>713.134216</v>
       </c>
       <c r="I7">
-        <v>0.8358257235294255</v>
+        <v>0.8183762794517323</v>
       </c>
       <c r="J7">
-        <v>0.8358257235294255</v>
+        <v>0.8183762794517323</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.317137056925309</v>
+        <v>0.3543876666666666</v>
       </c>
       <c r="N7">
-        <v>0.317137056925309</v>
+        <v>1.063163</v>
       </c>
       <c r="O7">
-        <v>0.00764147667122742</v>
+        <v>0.005921038279725251</v>
       </c>
       <c r="P7">
-        <v>0.00764147667122742</v>
+        <v>0.005921038279725251</v>
       </c>
       <c r="Q7">
-        <v>75.35171058804472</v>
+        <v>84.24199027613422</v>
       </c>
       <c r="R7">
-        <v>75.35171058804472</v>
+        <v>758.1779124852079</v>
       </c>
       <c r="S7">
-        <v>0.006386942767561884</v>
+        <v>0.004845637277852836</v>
       </c>
       <c r="T7">
-        <v>0.006386942767561884</v>
+        <v>0.004845637277852836</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.49744359292956</v>
+        <v>9.543019333333334</v>
       </c>
       <c r="H8">
-        <v>9.49744359292956</v>
+        <v>28.629058</v>
       </c>
       <c r="I8">
-        <v>0.03340998891434332</v>
+        <v>0.03285404268170446</v>
       </c>
       <c r="J8">
-        <v>0.03340998891434332</v>
+        <v>0.03285404268170446</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>38.7241200188267</v>
+        <v>56.98117766666667</v>
       </c>
       <c r="N8">
-        <v>38.7241200188267</v>
+        <v>170.943533</v>
       </c>
       <c r="O8">
-        <v>0.9330649108198242</v>
+        <v>0.952030123851636</v>
       </c>
       <c r="P8">
-        <v>0.9330649108198242</v>
+        <v>0.9520301238516359</v>
       </c>
       <c r="Q8">
-        <v>367.780145564641</v>
+        <v>543.7724801091016</v>
       </c>
       <c r="R8">
-        <v>367.780145564641</v>
+        <v>4893.952320981914</v>
       </c>
       <c r="S8">
-        <v>0.03117368832685307</v>
+        <v>0.03127803832329003</v>
       </c>
       <c r="T8">
-        <v>0.03117368832685307</v>
+        <v>0.03127803832329003</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.49744359292956</v>
+        <v>9.543019333333334</v>
       </c>
       <c r="H9">
-        <v>9.49744359292956</v>
+        <v>28.629058</v>
       </c>
       <c r="I9">
-        <v>0.03340998891434332</v>
+        <v>0.03285404268170446</v>
       </c>
       <c r="J9">
-        <v>0.03340998891434332</v>
+        <v>0.03285404268170446</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.46080732489328</v>
+        <v>2.516719</v>
       </c>
       <c r="N9">
-        <v>2.46080732489328</v>
+        <v>7.550157</v>
       </c>
       <c r="O9">
-        <v>0.0592936125089483</v>
+        <v>0.04204883786863874</v>
       </c>
       <c r="P9">
-        <v>0.0592936125089483</v>
+        <v>0.04204883786863874</v>
       </c>
       <c r="Q9">
-        <v>23.37137876124181</v>
+        <v>24.01709807356734</v>
       </c>
       <c r="R9">
-        <v>23.37137876124181</v>
+        <v>216.153882662106</v>
       </c>
       <c r="S9">
-        <v>0.001980998936615332</v>
+        <v>0.001381474314052328</v>
       </c>
       <c r="T9">
-        <v>0.001980998936615332</v>
+        <v>0.001381474314052328</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.49744359292956</v>
+        <v>9.543019333333334</v>
       </c>
       <c r="H10">
-        <v>9.49744359292956</v>
+        <v>28.629058</v>
       </c>
       <c r="I10">
-        <v>0.03340998891434332</v>
+        <v>0.03285404268170446</v>
       </c>
       <c r="J10">
-        <v>0.03340998891434332</v>
+        <v>0.03285404268170446</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.317137056925309</v>
+        <v>0.3543876666666666</v>
       </c>
       <c r="N10">
-        <v>0.317137056925309</v>
+        <v>1.063163</v>
       </c>
       <c r="O10">
-        <v>0.00764147667122742</v>
+        <v>0.005921038279725251</v>
       </c>
       <c r="P10">
-        <v>0.00764147667122742</v>
+        <v>0.005921038279725251</v>
       </c>
       <c r="Q10">
-        <v>3.011991309375813</v>
+        <v>3.381928354494888</v>
       </c>
       <c r="R10">
-        <v>3.011991309375813</v>
+        <v>30.437355190454</v>
       </c>
       <c r="S10">
-        <v>0.0002553016508749212</v>
+        <v>0.0001945300443620994</v>
       </c>
       <c r="T10">
-        <v>0.0002553016508749212</v>
+        <v>0.0001945300443620994</v>
       </c>
     </row>
   </sheetData>
